--- a/test_signup/Amsterdam/NTDS_Leiden.xlsx
+++ b/test_signup/Amsterdam/NTDS_Leiden.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="17400" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="18000" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>E-mail</t>
   </si>
@@ -300,9 +300,6 @@
   </si>
   <si>
     <t>Ben je op een eerder ETDS of NTDS vrijwilliger geweest?</t>
-  </si>
-  <si>
-    <t>Doe je mee aan de Same Seks wedstrijd?</t>
   </si>
 </sst>
 </file>
@@ -666,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X48"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +695,7 @@
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -768,11 +765,8 @@
       <c r="W1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -815,7 +809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -866,7 +860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -912,7 +906,7 @@
       </c>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -953,7 +947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1000,7 +994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1045,7 +1039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1093,7 +1087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1134,7 +1128,7 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1177,7 +1171,7 @@
       </c>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1220,7 +1214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1261,7 +1255,7 @@
       </c>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1310,7 +1304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1360,7 +1354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1406,7 +1400,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
